--- a/results/FrequencyTables/26796669_gVpr.xlsx
+++ b/results/FrequencyTables/26796669_gVpr.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.190233977619532</v>
       </c>
       <c r="C2">
-        <v>0.81</v>
+        <v>0.827873855544252</v>
       </c>
       <c r="D2">
-        <v>0.98</v>
+        <v>0.749745676500509</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.168870803662258</v>
       </c>
       <c r="F2">
-        <v>0.98</v>
+        <v>0.766022380467955</v>
       </c>
       <c r="G2">
-        <v>0.15</v>
+        <v>0.323499491353001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00712105798575788</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0551373346897253</v>
       </c>
       <c r="J2">
-        <v>0.86</v>
+        <v>0.649643947100712</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.209562563580875</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0354018311291963</v>
       </c>
       <c r="M2">
-        <v>0.85</v>
+        <v>0.838657171922686</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0164801627670397</v>
       </c>
       <c r="O2">
-        <v>0.01</v>
+        <v>0.00488301119023398</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00569684638860631</v>
       </c>
       <c r="Q2">
-        <v>0.19</v>
+        <v>0.491556459816887</v>
       </c>
       <c r="R2">
-        <v>0.98</v>
+        <v>0.750152594099695</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0034587995930824</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.926144455747711</v>
       </c>
       <c r="U2">
-        <v>0.32</v>
+        <v>0.269379450661241</v>
       </c>
       <c r="V2">
-        <v>0.99</v>
+        <v>0.752390640895219</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.0474059003051882</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.133468972533062</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0325534079348932</v>
       </c>
       <c r="C3">
-        <v>0.14</v>
+        <v>0.0939979654120041</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0423194303153611</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00244150559511699</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>0.196948118006104</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0142421159715158</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00162767039674466</v>
       </c>
       <c r="I3">
-        <v>0.82</v>
+        <v>0.623397761953205</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0.134282807731434</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.0516785350966429</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0551373346897253</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.0528992878942014</v>
       </c>
       <c r="N3">
-        <v>0.84</v>
+        <v>0.647812817904374</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.027263479145473</v>
       </c>
       <c r="P3">
-        <v>0.98</v>
+        <v>0.980061037639878</v>
       </c>
       <c r="Q3">
-        <v>0.18</v>
+        <v>0.15910478128179</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0107833163784334</v>
       </c>
       <c r="S3">
-        <v>0.98</v>
+        <v>0.978026449643947</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0034587995930824</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0331637843336724</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.0166836215666328</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0785350966429298</v>
       </c>
       <c r="X3">
-        <v>0.14</v>
+        <v>0.111495422177009</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.82</v>
+        <v>0.695625635808749</v>
       </c>
       <c r="C4">
-        <v>0.04</v>
+        <v>0.0703967446592065</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.201831129196338</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>0.17293997965412</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.00712105798575788</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>0.656154628687691</v>
       </c>
       <c r="H4">
-        <v>0.85</v>
+        <v>0.903763987792472</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0.00447609359104781</v>
       </c>
       <c r="J4">
-        <v>0.12</v>
+        <v>0.209766022380468</v>
       </c>
       <c r="K4">
-        <v>0.14</v>
+        <v>0.0791454730417091</v>
       </c>
       <c r="L4">
-        <v>0.15</v>
+        <v>0.262665310274669</v>
       </c>
       <c r="M4">
-        <v>0.01</v>
+        <v>0.0170905391658189</v>
       </c>
       <c r="N4">
-        <v>0.14</v>
+        <v>0.071617497456765</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0122075279755849</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00264496439471007</v>
       </c>
       <c r="Q4">
-        <v>0.33</v>
+        <v>0.303967446592065</v>
       </c>
       <c r="R4">
-        <v>0.01</v>
+        <v>0.0138351983723296</v>
       </c>
       <c r="S4">
-        <v>0.02</v>
+        <v>0.017293997965412</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0677517802644964</v>
       </c>
       <c r="U4">
-        <v>0.54</v>
+        <v>0.627263479145473</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.225432349949135</v>
       </c>
       <c r="W4">
-        <v>0.98</v>
+        <v>0.769074262461852</v>
       </c>
       <c r="X4">
-        <v>0.83</v>
+        <v>0.589827060020346</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.14</v>
+        <v>0.078942014242116</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.00366225839267548</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.00528992878942014</v>
       </c>
       <c r="E5">
-        <v>0.83</v>
+        <v>0.655137334689725</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0295015259409969</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00427263479145473</v>
       </c>
       <c r="H5">
-        <v>0.15</v>
+        <v>0.08646998982706</v>
       </c>
       <c r="I5">
-        <v>0.17</v>
+        <v>0.316581892166836</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>0.00488301119023398</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.658392675483215</v>
       </c>
       <c r="L5">
-        <v>0.85</v>
+        <v>0.644760935910478</v>
       </c>
       <c r="M5">
-        <v>0.13</v>
+        <v>0.0885045778229908</v>
       </c>
       <c r="N5">
-        <v>0.02</v>
+        <v>0.256154628687691</v>
       </c>
       <c r="O5">
-        <v>0.99</v>
+        <v>0.954018311291963</v>
       </c>
       <c r="P5">
-        <v>0.02</v>
+        <v>0.0115971515768057</v>
       </c>
       <c r="Q5">
-        <v>0.3</v>
+        <v>0.0400813835198372</v>
       </c>
       <c r="R5">
-        <v>0.01</v>
+        <v>0.222380467955239</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00101729399796541</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00101729399796541</v>
       </c>
       <c r="U5">
-        <v>0.14</v>
+        <v>0.0665310274669379</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00427263479145473</v>
       </c>
       <c r="W5">
-        <v>0.01</v>
+        <v>0.100915564598169</v>
       </c>
       <c r="X5">
-        <v>0.02</v>
+        <v>0.163784333672431</v>
       </c>
     </row>
   </sheetData>
